--- a/biology/Virologie/Polerovirus/Polerovirus.xlsx
+++ b/biology/Virologie/Polerovirus/Polerovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polerovirus est un genre de virus qui infecte les plantes (phytovirus). Ce genre, rattaché à la famille des Solemoviridae[2], comprend  treize espèces officiellement décrites, dont le PLRV (Potato leafroll virus), le virus de l'enroulement de la pomme de terre, qui en est l'espèce-type.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polerovirus est un genre de virus qui infecte les plantes (phytovirus). Ce genre, rattaché à la famille des Solemoviridae, comprend  treize espèces officiellement décrites, dont le PLRV (Potato leafroll virus), le virus de l'enroulement de la pomme de terre, qui en est l'espèce-type.
 Le nom dérive de la contraction du nom de l'espèce-type du genre,  le PLRV (Potato leafroll virus).
 Ce sont des virus à ARN linéaire, à simple brin et à polarité positive (ssRNA), classés dans le groupe IV de la classification Baltimore. Le génome, monopartite, compte de 5300 à 5700 nucléotides. Les virions, non enveloppés, sont constitués d'une capside icosaédrique de 25 à 30 nm de diamètre.
-Ces virus sont transmis par des insectes vecteurs de la famille des Aphididae (pucerons)[3].
+Ces virus sont transmis par des insectes vecteurs de la famille des Aphididae (pucerons).
 Selon les espèces, il infectent des plantes-hôtes appartenant aux dicotylédones (pomme de terre, betterave, colza, etc.) et parfois aux monocotylédones (céréales).
 </t>
         </is>
